--- a/typescript/dist/ModelStub/tags.xlsx
+++ b/typescript/dist/ModelStub/tags.xlsx
@@ -14,9 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Element</t>
+  </si>
+  <si>
+    <t>some-other-tag</t>
+  </si>
+  <si>
+    <t>some-tag</t>
+  </si>
+  <si>
+    <t>Some Other Technical Asset</t>
+  </si>
+  <si>
+    <t>Some Technical Asset</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Some Traffic</t>
+  </si>
+  <si>
+    <t>Some Data Asset</t>
+  </si>
+  <si>
+    <t>Some Trust Boundary</t>
+  </si>
+  <si>
+    <t>Some Shared Runtime</t>
   </si>
 </sst>
 </file>
@@ -379,6 +406,8 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
+    <col customWidth="true" max="2" min="2" width="35"/>
+    <col customWidth="true" max="3" min="3" width="35"/>
     <col customWidth="true" max="1" min="1" width="60"/>
   </cols>
   <sheetData>
@@ -386,6 +415,58 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
